--- a/library/library_3357.xlsx
+++ b/library/library_3357.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ED1287-9470-D944-AEE9-B481FE61A6BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2BFED7-7474-2C4A-9240-E33CD953537F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="38">
   <si>
     <t>s2cDNADate</t>
   </si>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B29 E2:E29"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -565,7 +565,7 @@
         <v>37</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -574,10 +574,10 @@
         <v>37</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -591,7 +591,7 @@
         <v>37</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -600,10 +600,10 @@
         <v>37</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
@@ -611,25 +611,25 @@
     </row>
     <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
@@ -643,7 +643,7 @@
         <v>37</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -652,10 +652,10 @@
         <v>37</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
@@ -669,7 +669,7 @@
         <v>37</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -678,10 +678,10 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
@@ -689,25 +689,25 @@
     </row>
     <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
@@ -721,7 +721,7 @@
         <v>37</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -730,10 +730,10 @@
         <v>37</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>37</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -756,10 +756,10 @@
         <v>37</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>11</v>
@@ -773,7 +773,7 @@
         <v>37</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -782,10 +782,10 @@
         <v>37</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>11</v>
@@ -793,25 +793,25 @@
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>11</v>
@@ -825,7 +825,7 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -834,10 +834,10 @@
         <v>37</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>11</v>
@@ -851,7 +851,7 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -860,10 +860,10 @@
         <v>37</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>11</v>
@@ -877,7 +877,7 @@
         <v>37</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -886,10 +886,10 @@
         <v>37</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>11</v>
@@ -903,7 +903,7 @@
         <v>37</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -912,10 +912,10 @@
         <v>37</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>11</v>
@@ -929,7 +929,7 @@
         <v>37</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -938,10 +938,10 @@
         <v>37</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>11</v>
@@ -955,7 +955,7 @@
         <v>37</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -964,10 +964,10 @@
         <v>37</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>11</v>
@@ -981,7 +981,7 @@
         <v>37</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -990,10 +990,10 @@
         <v>37</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>11</v>
@@ -1007,7 +1007,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -1016,10 +1016,10 @@
         <v>37</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>11</v>
@@ -1033,7 +1033,7 @@
         <v>37</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1042,10 +1042,10 @@
         <v>37</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>11</v>
@@ -1059,7 +1059,7 @@
         <v>37</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -1068,10 +1068,10 @@
         <v>37</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>11</v>
@@ -1085,7 +1085,7 @@
         <v>37</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1094,10 +1094,10 @@
         <v>37</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>11</v>
@@ -1111,7 +1111,7 @@
         <v>37</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -1120,10 +1120,10 @@
         <v>37</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>11</v>
@@ -1137,7 +1137,7 @@
         <v>37</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -1146,10 +1146,10 @@
         <v>37</v>
       </c>
       <c r="F24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>11</v>
@@ -1163,7 +1163,7 @@
         <v>37</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1172,10 +1172,10 @@
         <v>37</v>
       </c>
       <c r="F25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>11</v>
@@ -1189,7 +1189,7 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1198,10 +1198,10 @@
         <v>37</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>11</v>
@@ -1215,7 +1215,7 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1224,10 +1224,10 @@
         <v>37</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>11</v>
@@ -1241,7 +1241,7 @@
         <v>37</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1250,38 +1250,12 @@
         <v>37</v>
       </c>
       <c r="F28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29">
-        <v>28</v>
-      </c>
-      <c r="G29" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/library/library_3357.xlsx
+++ b/library/library_3357.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2BFED7-7474-2C4A-9240-E33CD953537F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8548AD-074C-7E47-ACC1-D37ECE42D40D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="38">
   <si>
     <t>s2cDNADate</t>
   </si>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -663,25 +663,25 @@
     </row>
     <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
@@ -695,7 +695,7 @@
         <v>37</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -704,10 +704,10 @@
         <v>37</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
@@ -721,7 +721,7 @@
         <v>37</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -730,10 +730,10 @@
         <v>37</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>37</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -756,10 +756,10 @@
         <v>37</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>11</v>
@@ -767,25 +767,25 @@
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>11</v>
@@ -799,7 +799,7 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -808,10 +808,10 @@
         <v>37</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>11</v>
@@ -825,7 +825,7 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -834,10 +834,10 @@
         <v>37</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>11</v>
@@ -851,7 +851,7 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -860,10 +860,10 @@
         <v>37</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>11</v>
@@ -877,7 +877,7 @@
         <v>37</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -886,10 +886,10 @@
         <v>37</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>11</v>
@@ -903,7 +903,7 @@
         <v>37</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -912,10 +912,10 @@
         <v>37</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>11</v>
@@ -929,7 +929,7 @@
         <v>37</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -938,10 +938,10 @@
         <v>37</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>11</v>
@@ -955,7 +955,7 @@
         <v>37</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -964,10 +964,10 @@
         <v>37</v>
       </c>
       <c r="F17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>11</v>
@@ -981,7 +981,7 @@
         <v>37</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -990,10 +990,10 @@
         <v>37</v>
       </c>
       <c r="F18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>11</v>
@@ -1007,7 +1007,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -1016,10 +1016,10 @@
         <v>37</v>
       </c>
       <c r="F19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>11</v>
@@ -1033,7 +1033,7 @@
         <v>37</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1042,10 +1042,10 @@
         <v>37</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>11</v>
@@ -1059,7 +1059,7 @@
         <v>37</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -1068,10 +1068,10 @@
         <v>37</v>
       </c>
       <c r="F21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>11</v>
@@ -1085,7 +1085,7 @@
         <v>37</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1094,10 +1094,10 @@
         <v>37</v>
       </c>
       <c r="F22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>11</v>
@@ -1111,7 +1111,7 @@
         <v>37</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -1120,10 +1120,10 @@
         <v>37</v>
       </c>
       <c r="F23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>11</v>
@@ -1137,7 +1137,7 @@
         <v>37</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -1146,10 +1146,10 @@
         <v>37</v>
       </c>
       <c r="F24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>11</v>
@@ -1163,7 +1163,7 @@
         <v>37</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1172,10 +1172,10 @@
         <v>37</v>
       </c>
       <c r="F25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>11</v>
@@ -1189,7 +1189,7 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1198,10 +1198,10 @@
         <v>37</v>
       </c>
       <c r="F26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>11</v>
@@ -1215,7 +1215,7 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1224,38 +1224,12 @@
         <v>37</v>
       </c>
       <c r="F27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28">
-        <v>28</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/library/library_3357.xlsx
+++ b/library/library_3357.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8548AD-074C-7E47-ACC1-D37ECE42D40D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74983BD2-C5B0-834F-A301-E78D2D90B5D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>11.14.18</t>
   </si>
   <si>
-    <t>12.5.18</t>
-  </si>
-  <si>
     <t>TGAGGTTATC</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>12.05.18</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -562,25 +562,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -588,77 +588,77 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -666,25 +666,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -692,25 +692,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -718,25 +718,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -744,493 +744,493 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13">
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14">
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16">
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17">
         <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18">
         <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19">
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20">
         <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21">
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22">
         <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23">
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24">
         <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25">
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26">
         <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27">
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
